--- a/Inputs/Orange_Neuron/benefits1.xlsx
+++ b/Inputs/Orange_Neuron/benefits1.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="112">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependsOn</t>
   </si>
   <si>
     <t xml:space="preserve">Starter</t>
@@ -460,7 +463,7 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil (Pharmacy Copay)/5% (Pharmacy Copay)/10% (Pharmacy Copay)/15% (Pharmacy Copay)/20% (Pharmacy Copay)/25% (Pharmacy Copay)/30% (Pharmacy Copay)</t>
+    <t xml:space="preserve">Nil (Pharmacy Co-pay)/5% (Pharmacy Co-pay)/10% (Pharmacy Co-pay)/15% (Pharmacy Co-pay)/20% (Pharmacy Co-pay)/25% (Pharmacy Co-pay)/30% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">$</t>
@@ -846,11 +849,11 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -877,73 +880,76 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -952,70 +958,70 @@
     </row>
     <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1024,130 +1030,130 @@
     </row>
     <row r="10" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1156,150 +1162,153 @@
     </row>
     <row r="17" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1308,93 +1317,93 @@
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1403,50 +1412,50 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1455,190 +1464,190 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1647,222 +1656,222 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
